--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf15-Fgfr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf15-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.136777933508787</v>
+        <v>0.029478</v>
       </c>
       <c r="H2">
-        <v>0.136777933508787</v>
+        <v>0.088434</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1535387136874709</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1535387136874709</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.981008402036879</v>
+        <v>10.25548833333333</v>
       </c>
       <c r="N2">
-        <v>9.981008402036879</v>
+        <v>30.766465</v>
       </c>
       <c r="O2">
-        <v>0.09921067745427756</v>
+        <v>0.09996462463766297</v>
       </c>
       <c r="P2">
-        <v>0.09921067745427756</v>
+        <v>0.09996462463766294</v>
       </c>
       <c r="Q2">
-        <v>1.365181703564445</v>
+        <v>0.30231128509</v>
       </c>
       <c r="R2">
-        <v>1.365181703564445</v>
+        <v>2.72080156581</v>
       </c>
       <c r="S2">
-        <v>0.09921067745427756</v>
+        <v>0.01534843988111763</v>
       </c>
       <c r="T2">
-        <v>0.09921067745427756</v>
+        <v>0.01534843988111763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.136777933508787</v>
+        <v>0.029478</v>
       </c>
       <c r="H3">
-        <v>0.136777933508787</v>
+        <v>0.088434</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1535387136874709</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1535387136874709</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.6272523368922</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N3">
-        <v>74.6272523368922</v>
+        <v>223.948188</v>
       </c>
       <c r="O3">
-        <v>0.741790805364261</v>
+        <v>0.7276395436298834</v>
       </c>
       <c r="P3">
-        <v>0.741790805364261</v>
+        <v>0.7276395436298831</v>
       </c>
       <c r="Q3">
-        <v>10.20736135807891</v>
+        <v>2.200514895288</v>
       </c>
       <c r="R3">
-        <v>10.20736135807891</v>
+        <v>19.804634057592</v>
       </c>
       <c r="S3">
-        <v>0.741790805364261</v>
+        <v>0.1117208395570707</v>
       </c>
       <c r="T3">
-        <v>0.741790805364261</v>
+        <v>0.1117208395570706</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.136777933508787</v>
+        <v>0.029478</v>
       </c>
       <c r="H4">
-        <v>0.136777933508787</v>
+        <v>0.088434</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1535387136874709</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1535387136874709</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.86400860188169</v>
+        <v>0.869824</v>
       </c>
       <c r="N4">
-        <v>0.86400860188169</v>
+        <v>2.609472</v>
       </c>
       <c r="O4">
-        <v>0.008588198232706882</v>
+        <v>0.008478546007235204</v>
       </c>
       <c r="P4">
-        <v>0.008588198232706882</v>
+        <v>0.008478546007235202</v>
       </c>
       <c r="Q4">
-        <v>0.1181773110991938</v>
+        <v>0.025640671872</v>
       </c>
       <c r="R4">
-        <v>0.1181773110991938</v>
+        <v>0.230766046848</v>
       </c>
       <c r="S4">
-        <v>0.008588198232706882</v>
+        <v>0.001301785047890936</v>
       </c>
       <c r="T4">
-        <v>0.008588198232706882</v>
+        <v>0.001301785047890935</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -723,49 +723,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.136777933508787</v>
+        <v>0.029478</v>
       </c>
       <c r="H5">
-        <v>0.136777933508787</v>
+        <v>0.088434</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1535387136874709</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1535387136874709</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.520787431444503</v>
+        <v>0.6143926666666666</v>
       </c>
       <c r="N5">
-        <v>0.520787431444503</v>
+        <v>1.843178</v>
       </c>
       <c r="O5">
-        <v>0.005176598576225841</v>
+        <v>0.005988747713148011</v>
       </c>
       <c r="P5">
-        <v>0.005176598576225841</v>
+        <v>0.005988747713148009</v>
       </c>
       <c r="Q5">
-        <v>0.0712322286703282</v>
+        <v>0.018111067028</v>
       </c>
       <c r="R5">
-        <v>0.0712322286703282</v>
+        <v>0.162999603252</v>
       </c>
       <c r="S5">
-        <v>0.005176598576225841</v>
+        <v>0.0009195046204755286</v>
       </c>
       <c r="T5">
-        <v>0.005176598576225841</v>
+        <v>0.0009195046204755284</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,371 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.029478</v>
+      </c>
+      <c r="H6">
+        <v>0.088434</v>
+      </c>
+      <c r="I6">
+        <v>0.1535387136874709</v>
+      </c>
+      <c r="J6">
+        <v>0.1535387136874709</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>16.20207433333333</v>
+      </c>
+      <c r="N6">
+        <v>48.606223</v>
+      </c>
+      <c r="O6">
+        <v>0.1579285380120706</v>
+      </c>
+      <c r="P6">
+        <v>0.1579285380120706</v>
+      </c>
+      <c r="Q6">
+        <v>0.477604747198</v>
+      </c>
+      <c r="R6">
+        <v>4.298442724782</v>
+      </c>
+      <c r="S6">
+        <v>0.02424814458091618</v>
+      </c>
+      <c r="T6">
+        <v>0.02424814458091617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.1625126666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.487538</v>
+      </c>
+      <c r="I7">
+        <v>0.846461286312529</v>
+      </c>
+      <c r="J7">
+        <v>0.846461286312529</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10.25548833333333</v>
+      </c>
+      <c r="N7">
+        <v>30.766465</v>
+      </c>
+      <c r="O7">
+        <v>0.09996462463766297</v>
+      </c>
+      <c r="P7">
+        <v>0.09996462463766294</v>
+      </c>
+      <c r="Q7">
+        <v>1.666646757018889</v>
+      </c>
+      <c r="R7">
+        <v>14.99982081317</v>
+      </c>
+      <c r="S7">
+        <v>0.08461618475654532</v>
+      </c>
+      <c r="T7">
+        <v>0.08461618475654531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.136777933508787</v>
-      </c>
-      <c r="H6">
-        <v>0.136777933508787</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>14.6111186869512</v>
-      </c>
-      <c r="N6">
-        <v>14.6111186869512</v>
-      </c>
-      <c r="O6">
-        <v>0.1452337203725286</v>
-      </c>
-      <c r="P6">
-        <v>0.1452337203725286</v>
-      </c>
-      <c r="Q6">
-        <v>1.998478620252806</v>
-      </c>
-      <c r="R6">
-        <v>1.998478620252806</v>
-      </c>
-      <c r="S6">
-        <v>0.1452337203725286</v>
-      </c>
-      <c r="T6">
-        <v>0.1452337203725286</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.1625126666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.487538</v>
+      </c>
+      <c r="I8">
+        <v>0.846461286312529</v>
+      </c>
+      <c r="J8">
+        <v>0.846461286312529</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>74.64939600000001</v>
+      </c>
+      <c r="N8">
+        <v>223.948188</v>
+      </c>
+      <c r="O8">
+        <v>0.7276395436298834</v>
+      </c>
+      <c r="P8">
+        <v>0.7276395436298831</v>
+      </c>
+      <c r="Q8">
+        <v>12.131472409016</v>
+      </c>
+      <c r="R8">
+        <v>109.183251681144</v>
+      </c>
+      <c r="S8">
+        <v>0.6159187040728127</v>
+      </c>
+      <c r="T8">
+        <v>0.6159187040728125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.1625126666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.487538</v>
+      </c>
+      <c r="I9">
+        <v>0.846461286312529</v>
+      </c>
+      <c r="J9">
+        <v>0.846461286312529</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.869824</v>
+      </c>
+      <c r="N9">
+        <v>2.609472</v>
+      </c>
+      <c r="O9">
+        <v>0.008478546007235204</v>
+      </c>
+      <c r="P9">
+        <v>0.008478546007235202</v>
+      </c>
+      <c r="Q9">
+        <v>0.1413574177706667</v>
+      </c>
+      <c r="R9">
+        <v>1.272216759936</v>
+      </c>
+      <c r="S9">
+        <v>0.007176760959344268</v>
+      </c>
+      <c r="T9">
+        <v>0.007176760959344266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.1625126666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.487538</v>
+      </c>
+      <c r="I10">
+        <v>0.846461286312529</v>
+      </c>
+      <c r="J10">
+        <v>0.846461286312529</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6143926666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.843178</v>
+      </c>
+      <c r="O10">
+        <v>0.005988747713148011</v>
+      </c>
+      <c r="P10">
+        <v>0.005988747713148009</v>
+      </c>
+      <c r="Q10">
+        <v>0.09984659064044443</v>
+      </c>
+      <c r="R10">
+        <v>0.8986193157639999</v>
+      </c>
+      <c r="S10">
+        <v>0.005069243092672482</v>
+      </c>
+      <c r="T10">
+        <v>0.005069243092672481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.1625126666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.487538</v>
+      </c>
+      <c r="I11">
+        <v>0.846461286312529</v>
+      </c>
+      <c r="J11">
+        <v>0.846461286312529</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>16.20207433333333</v>
+      </c>
+      <c r="N11">
+        <v>48.606223</v>
+      </c>
+      <c r="O11">
+        <v>0.1579285380120706</v>
+      </c>
+      <c r="P11">
+        <v>0.1579285380120706</v>
+      </c>
+      <c r="Q11">
+        <v>2.633042305441555</v>
+      </c>
+      <c r="R11">
+        <v>23.697380748974</v>
+      </c>
+      <c r="S11">
+        <v>0.1336803934311544</v>
+      </c>
+      <c r="T11">
+        <v>0.1336803934311544</v>
       </c>
     </row>
   </sheetData>
